--- a/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 10,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,99; 149,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,88%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,94; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,85; 90,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 0,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,93; 257,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,89%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 10,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,48; 181,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 8,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,16; 108,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>360,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>308,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 15,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 4,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,59; 1949,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,5%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 5,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 79,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,74; 157,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,44; 578,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>28,12%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>2.982265273461296</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.566686457166601</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.245928474596935</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.281184887673335</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,126 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 10,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; 149,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.87070216576926</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.864621521901944</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3499158936173432</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.58616870244005</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.03348461829733</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.495680988620845</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-27,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>272,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 4,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 3,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-83,85; 90,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.077466004576749</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8460686710512746</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.488721752812141</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2707674276181761</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.221286369285668</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>58,01%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-86,34%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>23,13%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.93930576601725</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7567544153408914</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.838459283942411</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 8,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 0,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 1,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,93; 257,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.710361115063664</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.740773580345325</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.262503769651516</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9071878243902229</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +763,147 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>62,74%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25,89%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.682950038537197</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.12893230154025</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2358502620342819</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5800966510529987</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.903847673682425</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3032497043531527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 10,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 181,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.239479628342321</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.14945403779368</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.404128799398799</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3092787589535956</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.947977486957557</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.855824286681384</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.616266208274748</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.573627985425476</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>103,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 8,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 2,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 0,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-54,16; 108,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.091991967067037</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9714539248200651</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2454426733699978</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6274019646706182</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2051752718122715</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>360,28%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>308,52%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3302327683588296</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.054582233109184</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.662944626585072</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.06477453293175685</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 15,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 4,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>24,59; 1949,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.55749671322143</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.133536531678314</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.816285682843643</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +911,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>33,89%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-29,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>130,5%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.4237230931914457</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6238262089388085</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.576888825228291</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.03704167908080776</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.9979322613192585</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 5,53</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 0,54</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 1,21</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 79,01</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-89,74; 157,64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; 578,59</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.717222993195436</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.269622228832806</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.426453350768209</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5416008199507909</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.398051285292972</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.173690914629302</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.082678190688414</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>8.98559805735375</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>4.607112689291656</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.609364431341638</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3.602832016122186</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>6.12102487540375</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>3.150233190177888</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4771255297262169</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.2458950186053574</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15.89715184920019</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>15.49854394692343</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.163000654424075</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>19.49117024552335</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.880210326309075</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.3835741016378791</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6950614035349327</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.338850582477396</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2309260470372609</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.187037997936594</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.3170404778404351</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.016085804652394</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.0436673720576203</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.03845637099433141</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.9207746634764783</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1961584679024603</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.531470788859462</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.267118832869633</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.560229602546003</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.7901225120319771</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.665044740291258</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>4.837485930265987</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1142,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
